--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1984.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1984.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.224558710188069</v>
+        <v>0.7767695188522339</v>
       </c>
       <c r="B1">
-        <v>2.254909080569455</v>
+        <v>0.9612244963645935</v>
       </c>
       <c r="C1">
-        <v>8.457068627284466</v>
+        <v>1.356578946113586</v>
       </c>
       <c r="D1">
-        <v>2.565531408509864</v>
+        <v>3.210244655609131</v>
       </c>
       <c r="E1">
-        <v>1.157940133609632</v>
+        <v>2.884607315063477</v>
       </c>
     </row>
   </sheetData>
